--- a/with logs for unschedule with saturday sunday/excel_schedules/room_172_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_172_genetic_schedule.xlsx
@@ -602,7 +602,28 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>MU 208 - Music
 2E
@@ -610,35 +631,13 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -646,6 +645,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="B19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
